--- a/src/home/pages/dashboard/stores/sample.xlsx
+++ b/src/home/pages/dashboard/stores/sample.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Customer Project\Nikita_Containers\Application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8032778-75A9-4A52-AA80-E6E8403E06FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F4CEE529-A7F5-4576-B1E2-BD6585D10687}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
-    <t>DC.No</t>
-  </si>
-  <si>
-    <t>Dc Date</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -64,12 +57,18 @@
   </si>
   <si>
     <t>Mannur</t>
+  </si>
+  <si>
+    <t>Doc No</t>
+  </si>
+  <si>
+    <t>Doc Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,48 +414,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95E805B-1BC9-43A3-8762-26395F8BD34F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -464,10 +463,10 @@
         <v>46016</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -479,7 +478,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -487,10 +486,10 @@
         <v>46016</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -502,7 +501,7 @@
         <v>200001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -510,10 +509,10 @@
         <v>46016</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -525,7 +524,7 @@
         <v>200002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -533,10 +532,10 @@
         <v>46016</v>
       </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -548,7 +547,7 @@
         <v>200003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -556,10 +555,10 @@
         <v>46016</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="E6">
         <v>1000</v>
